--- a/biology/Zoologie/Hemiocnus/Hemiocnus.xlsx
+++ b/biology/Zoologie/Hemiocnus/Hemiocnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiocnus est un genre d'holothuries (concombres de mer) de la famille des Cucumariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hemiocnus a été créé en 2016 par les zoologistes sud-africains Sifiso Mjobo (d) et Ahmed Suleman Thandar (d) avec pour espèce type Cladodactyla syracusana Grube, 1840, rebaptisée Hemiocnus syracusanus (Grube, 1840)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hemiocnus a été créé en 2016 par les zoologistes sud-africains Sifiso Mjobo (d) et Ahmed Suleman Thandar (d) avec pour espèce type Cladodactyla syracusana Grube, 1840, rebaptisée Hemiocnus syracusanus (Grube, 1840).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petites Cucumariidae classiques, ressemblant beaucoup aux Pseudocnella, mais s'en distinguant par deux tentacules buccaux ventraux réduits et la présence de spicules en rosette dans les tentacules[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petites Cucumariidae classiques, ressemblant beaucoup aux Pseudocnella, mais s'en distinguant par deux tentacules buccaux ventraux réduits et la présence de spicules en rosette dans les tentacules.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Hemiocnus dérive de celui du genre Ocnus dont il est très proche[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Hemiocnus dérive de celui du genre Ocnus dont il est très proche.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (19 octobre 2021)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (19 octobre 2021) :
 Hemiocnus insolens (Théel, 1886) -- Afrique du Sud
 Hemiocnus rubrobrunneus Mjobo &amp; Thandar, 2016 -- Tunisie
 Hemiocnus syracusanus (Grube, 1840) -- Méditerranée
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Sifiso Mjobo et Ahmed Suleman Thandar, « A new genus and a new species in the sea cucumber subfamily Colochirinae (Echinodermata: Holothuroidea: Dendrochirotida: Cucumariidae) in the Mediterranean Sea », Zootaxa, Magnolia Press (d), vol. 4189, no 1,‎ 9 novembre 2016, p. 156–164 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 27988762, DOI 10.11646/ZOOTAXA.4189.1.8, lire en ligne)</t>
         </is>
